--- a/Thesis/Resources/initialPerformance.xlsx
+++ b/Thesis/Resources/initialPerformance.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12210"/>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
-  <si>
-    <t>Cavity_128</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Initialisation</t>
   </si>
@@ -53,9 +50,6 @@
     <t>File writing</t>
   </si>
   <si>
-    <t>Cavity_256</t>
-  </si>
-  <si>
     <t>CurrentCode</t>
   </si>
   <si>
@@ -68,16 +62,61 @@
     <t>Difference (s)</t>
   </si>
   <si>
-    <t>Overall_256</t>
+    <t>Cavity_128_8</t>
   </si>
   <si>
-    <t>Iteration_256</t>
+    <t>Overall_128_8</t>
   </si>
   <si>
-    <t>Overall_128</t>
+    <t>Iteration_128_8</t>
   </si>
   <si>
-    <t>Iteration_128</t>
+    <t>Cavity_128_16</t>
+  </si>
+  <si>
+    <t>Overall_128_16</t>
+  </si>
+  <si>
+    <t>Iteration_128_16</t>
+  </si>
+  <si>
+    <t>Cavity_256_16</t>
+  </si>
+  <si>
+    <t>Overall_256_16</t>
+  </si>
+  <si>
+    <t>Iteration_256_16</t>
+  </si>
+  <si>
+    <t>Cavity_256_8</t>
+  </si>
+  <si>
+    <t>Overall_256_8</t>
+  </si>
+  <si>
+    <t>Iteration_256_8</t>
+  </si>
+  <si>
+    <t>Cavity_128_32</t>
+  </si>
+  <si>
+    <t>Overall_128_32</t>
+  </si>
+  <si>
+    <t>Iteration_128_32</t>
+  </si>
+  <si>
+    <t>Cavity_256_32</t>
+  </si>
+  <si>
+    <t>Overall_256_32</t>
+  </si>
+  <si>
+    <t>Iteration_256_32</t>
+  </si>
+  <si>
+    <t>Seconds</t>
   </si>
 </sst>
 </file>
@@ -170,6 +209,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9B78-4533-BFBB-8E8CC7D82450}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -185,6 +229,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9B78-4533-BFBB-8E8CC7D82450}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -200,6 +249,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9B78-4533-BFBB-8E8CC7D82450}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -215,6 +269,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9B78-4533-BFBB-8E8CC7D82450}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -230,6 +289,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-9B78-4533-BFBB-8E8CC7D82450}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -245,6 +309,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-9B78-4533-BFBB-8E8CC7D82450}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -477,16 +546,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Overall_128</c:v>
+                  <c:v>Overall_128_16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Iteration_128</c:v>
+                  <c:v>Iteration_128_16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Overall_256</c:v>
+                  <c:v>Overall_256_16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Iteration_256</c:v>
+                  <c:v>Iteration_256_16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -562,16 +631,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Overall_128</c:v>
+                  <c:v>Overall_128_16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Iteration_128</c:v>
+                  <c:v>Iteration_128_16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Overall_256</c:v>
+                  <c:v>Overall_256_16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Iteration_256</c:v>
+                  <c:v>Iteration_256_16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -811,6 +880,682 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>16x16</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Cavity_128</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>98.010002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-358E-4577-B49B-9A1C916B5BF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>32x32</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Cavity_128</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>120.91999800000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-358E-4577-B49B-9A1C916B5BF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>8x8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Cavity_128</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>120.19000200000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-358E-4577-B49B-9A1C916B5BF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="568760184"/>
+        <c:axId val="349386704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="568760184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349386704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="349386704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="568760184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>16x16</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Cavity_256</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>619.830017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4829-4D0E-A105-4088DD17089A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>8x8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Cavity_256</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>762.92999299999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4829-4D0E-A105-4088DD17089A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>32x32</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Cavity_256</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>763.52996800000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4829-4D0E-A105-4088DD17089A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="792958176"/>
+        <c:axId val="792958504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="792958176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="792958504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="792958504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="792958176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -891,6 +1636,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -1913,20 +2738,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1953,16 +3784,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>423862</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>442912</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1982,6 +3813,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B7BF99A-4CD0-4C18-8DE8-9C6B4E5BBC93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E291D03-2693-4669-997B-8CD6B53208CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2253,43 +4156,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:G24"/>
+  <dimension ref="C1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="3" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>15</v>
       </c>
@@ -2307,8 +4215,14 @@
         <f>(F2/D2)*100</f>
         <v>5.1117211486231735</v>
       </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>120.19000200000001</v>
+      </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>16</v>
       </c>
@@ -2323,13 +4237,19 @@
         <v>4.7100039999999979</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G24" si="1">(F3/D3)*100</f>
+        <f t="shared" ref="G3:G23" si="1">(F3/D3)*100</f>
         <v>5.3620266558299914</v>
       </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3">
+        <v>108.68</v>
+      </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0.24365600000000001</v>
@@ -2346,9 +4266,9 @@
         <v>43.645139048494585</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>18.762087000000001</v>
@@ -2365,9 +4285,9 @@
         <v>6.4422470698494619E-2</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>20.981680000000001</v>
@@ -2383,10 +4303,16 @@
         <f t="shared" si="1"/>
         <v>0.27795676990592921</v>
       </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>6.3556270000000001</v>
@@ -2402,10 +4328,16 @@
         <f t="shared" si="1"/>
         <v>1.1701913910303354</v>
       </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7">
+        <v>120.91999800000001</v>
+      </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>10.612173</v>
@@ -2421,10 +4353,16 @@
         <f t="shared" si="1"/>
         <v>7.4647576891179597</v>
       </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8">
+        <v>109.339996</v>
+      </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>40.668854000000003</v>
@@ -2441,9 +4379,9 @@
         <v>15.094730724401531</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>2.12</v>
@@ -2460,29 +4398,35 @@
         <v>32.547169811320757</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F11">
         <f>AVERAGE(F2:F10)</f>
         <v>1.9546836666666663</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" t="s">
-        <v>12</v>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D15">
         <v>619.830017</v>
@@ -2498,10 +4442,16 @@
         <f t="shared" si="1"/>
         <v>0.54208684765906889</v>
       </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15">
+        <v>762.92999299999997</v>
+      </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D16">
         <v>545.64001499999995</v>
@@ -2517,10 +4467,16 @@
         <f t="shared" si="1"/>
         <v>0.17044479408276392</v>
       </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16">
+        <v>689.71002199999998</v>
+      </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>2.1805599999999998</v>
@@ -2537,9 +4493,9 @@
         <v>13.732252265473097</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>147.40618900000001</v>
@@ -2556,9 +4512,9 @@
         <v>3.8118480900430567E-2</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>167.582199</v>
@@ -2574,10 +4530,16 @@
         <f t="shared" si="1"/>
         <v>0.47868986371279304</v>
       </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>23.712564</v>
@@ -2593,10 +4555,16 @@
         <f t="shared" si="1"/>
         <v>0.1373280426359659</v>
       </c>
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20">
+        <v>763.52996800000005</v>
+      </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>83.477149999999995</v>
@@ -2612,10 +4580,16 @@
         <f t="shared" si="1"/>
         <v>7.9748170607166173</v>
       </c>
+      <c r="I21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21">
+        <v>690.14001499999995</v>
+      </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>144.77719099999999</v>
@@ -2632,9 +4606,9 @@
         <v>5.3994630963657668</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23">
         <v>22.41</v>
@@ -2651,7 +4625,7 @@
         <v>0.53547523427041943</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F24">
         <f>AVERAGE(F15:F23)</f>
         <v>2.2305294444444317</v>

--- a/Thesis/Resources/initialPerformance.xlsx
+++ b/Thesis/Resources/initialPerformance.xlsx
@@ -43,13 +43,13 @@
     <t xml:space="preserve">Seconds</t>
   </si>
   <si>
-    <t xml:space="preserve">Overall_128_16</t>
+    <t xml:space="preserve">Overall_128</t>
   </si>
   <si>
     <t xml:space="preserve">Overall_128_8</t>
   </si>
   <si>
-    <t xml:space="preserve">Iteration_128_16</t>
+    <t xml:space="preserve">Iteration_128</t>
   </si>
   <si>
     <t xml:space="preserve">Iteration_128_8</t>
@@ -91,13 +91,13 @@
     <t xml:space="preserve">Cavity_256_8</t>
   </si>
   <si>
-    <t xml:space="preserve">Overall_256_16</t>
+    <t xml:space="preserve">Overall_256</t>
   </si>
   <si>
     <t xml:space="preserve">Overall_256_8</t>
   </si>
   <si>
-    <t xml:space="preserve">Iteration_256_16</t>
+    <t xml:space="preserve">Iteration_256</t>
   </si>
   <si>
     <t xml:space="preserve">Iteration_256_8</t>
@@ -119,13 +119,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -150,6 +149,11 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -222,19 +226,19 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFD320"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF7E0021"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF5B9BD5"/>
       <rgbColor rgb="FF993366"/>
@@ -262,14 +266,14 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF4472C4"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF70AD47"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFED7D31"/>
       <rgbColor rgb="FF595959"/>
       <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF70AD47"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF579D1C"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -597,16 +601,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Overall_128_16</c:v>
+                  <c:v>Overall_128</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Iteration_128_16</c:v>
+                  <c:v>Iteration_128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Overall_256_16</c:v>
+                  <c:v>Overall_256</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Iteration_256_16</c:v>
+                  <c:v>Iteration_256</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -671,16 +675,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Overall_128_16</c:v>
+                  <c:v>Overall_128</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Iteration_128_16</c:v>
+                  <c:v>Iteration_128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Overall_256_16</c:v>
+                  <c:v>Overall_256</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Iteration_256_16</c:v>
+                  <c:v>Iteration_256</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -709,11 +713,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="17743426"/>
-        <c:axId val="32774412"/>
+        <c:axId val="80155964"/>
+        <c:axId val="97466584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="17743426"/>
+        <c:axId val="80155964"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -749,14 +753,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32774412"/>
+        <c:crossAx val="97466584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32774412"/>
+        <c:axId val="97466584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +841,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17743426"/>
+        <c:crossAx val="80155964"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -849,16 +853,14 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.305477909011374"/>
-          <c:y val="0.907985564304462"/>
+          <c:x val="0.305420862862116"/>
+          <c:y val="0.907886104185802"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1027,11 +1029,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="95983623"/>
-        <c:axId val="92228922"/>
+        <c:axId val="77776253"/>
+        <c:axId val="94578220"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95983623"/>
+        <c:axId val="77776253"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1067,14 +1069,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92228922"/>
+        <c:crossAx val="94578220"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92228922"/>
+        <c:axId val="94578220"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1117,7 +1119,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95983623"/>
+        <c:crossAx val="77776253"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1299,11 +1301,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="45023684"/>
-        <c:axId val="81403499"/>
+        <c:axId val="75738903"/>
+        <c:axId val="33213099"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45023684"/>
+        <c:axId val="75738903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,14 +1341,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81403499"/>
+        <c:crossAx val="33213099"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81403499"/>
+        <c:axId val="33213099"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1389,7 +1391,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45023684"/>
+        <c:crossAx val="75738903"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1424,20 +1426,225 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$5:$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Streaming</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Boundaries</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Macroscopic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Residuals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18.762087</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.98168</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.355627</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.612173</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.668854</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285840</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>624960</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>590400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>210240</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1445,8 +1652,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="15544800" y="114480"/>
-        <a:ext cx="5638320" cy="2742840"/>
+        <a:off x="17407800" y="3774240"/>
+        <a:ext cx="5681160" cy="2922120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1461,11 +1668,11 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>385920</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:rowOff>48960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>80640</xdr:colOff>
+      <xdr:colOff>81360</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
@@ -1475,8 +1682,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="15644880" y="3285720"/>
-        <a:ext cx="5790600" cy="2743200"/>
+        <a:off x="15644880" y="3287160"/>
+        <a:ext cx="5791320" cy="2741760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1495,9 +1702,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>114120</xdr:colOff>
+      <xdr:colOff>114840</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1506,7 +1713,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2209680" y="4800600"/>
-        <a:ext cx="6333840" cy="2742840"/>
+        <a:ext cx="6334560" cy="2743560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1519,13 +1726,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>324000</xdr:colOff>
+      <xdr:colOff>325440</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:rowOff>58680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>333000</xdr:colOff>
+      <xdr:colOff>333720</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
@@ -1535,12 +1742,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8753400" y="4438440"/>
-        <a:ext cx="6076440" cy="2743200"/>
+        <a:off x="8754840" y="4439880"/>
+        <a:ext cx="6075720" cy="2741760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>36360</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>519120</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>37080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4493880" y="797760"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1556,8 +1793,8 @@
   </sheetPr>
   <dimension ref="C1:J24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
